--- a/data/excel/members/student_import_test.xlsx
+++ b/data/excel/members/student_import_test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aleksioprime/develop/freshstream/local/fixtures/excel/members/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\development\freshstream\data\excel\members\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF91A4E8-8B21-5D46-8F5E-AB26EFED4BA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69429444-EBB0-4892-9276-8AC138F63705}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11060" yWindow="500" windowWidth="16440" windowHeight="16220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10260" yWindow="675" windowWidth="17580" windowHeight="14805" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,6 @@
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -30,117 +29,111 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="35">
   <si>
     <t>id_dnevnik</t>
   </si>
   <si>
+    <t>last_name</t>
+  </si>
+  <si>
+    <t>first_name</t>
+  </si>
+  <si>
+    <t>date_of_birth</t>
+  </si>
+  <si>
+    <t>gender</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>Мария</t>
+  </si>
+  <si>
+    <t>Маргарита</t>
+  </si>
+  <si>
+    <t>Георгий</t>
+  </si>
+  <si>
+    <t>Степанова</t>
+  </si>
+  <si>
+    <t>Токарев</t>
+  </si>
+  <si>
+    <t>Феденко</t>
+  </si>
+  <si>
+    <t>Миа</t>
+  </si>
+  <si>
+    <t>Ельчищева</t>
+  </si>
+  <si>
+    <t>Карпекина</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>mstepanova</t>
+  </si>
+  <si>
+    <t>gtokarev</t>
+  </si>
+  <si>
+    <t>mfedenko</t>
+  </si>
+  <si>
+    <t>melchishcheva</t>
+  </si>
+  <si>
+    <t>mkarpekina</t>
+  </si>
+  <si>
+    <t>1qaz@WSXmfe</t>
+  </si>
+  <si>
+    <t>1qaz@WSXmst</t>
+  </si>
+  <si>
+    <t>1qaz@WSXmka</t>
+  </si>
+  <si>
+    <t>mstepanova@mail.ru</t>
+  </si>
+  <si>
+    <t>1qaz@WSXgto</t>
+  </si>
+  <si>
+    <t>gtokarev@mail.ru</t>
+  </si>
+  <si>
+    <t>mfedenko@mail.ru</t>
+  </si>
+  <si>
+    <t>1qaz@WSXmel</t>
+  </si>
+  <si>
+    <t>melchishcheva@mail.ru</t>
+  </si>
+  <si>
+    <t>mkarpekina@mail.ru</t>
+  </si>
+  <si>
     <t>group</t>
-  </si>
-  <si>
-    <t>last_name</t>
-  </si>
-  <si>
-    <t>first_name</t>
-  </si>
-  <si>
-    <t>date_of_birth</t>
-  </si>
-  <si>
-    <t>gender</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>Мария</t>
-  </si>
-  <si>
-    <t>Маргарита</t>
-  </si>
-  <si>
-    <t>Георгий</t>
-  </si>
-  <si>
-    <t>Степанова</t>
-  </si>
-  <si>
-    <t>Токарев</t>
-  </si>
-  <si>
-    <t>Феденко</t>
-  </si>
-  <si>
-    <t>Миа</t>
-  </si>
-  <si>
-    <t>Ельчищева</t>
-  </si>
-  <si>
-    <t>Карпекина</t>
-  </si>
-  <si>
-    <t>username</t>
-  </si>
-  <si>
-    <t>password</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>role</t>
-  </si>
-  <si>
-    <t>student</t>
-  </si>
-  <si>
-    <t>mstepanova</t>
-  </si>
-  <si>
-    <t>gtokarev</t>
-  </si>
-  <si>
-    <t>mfedenko</t>
-  </si>
-  <si>
-    <t>melchishcheva</t>
-  </si>
-  <si>
-    <t>mkarpekina</t>
-  </si>
-  <si>
-    <t>1qaz@WSXmfe</t>
-  </si>
-  <si>
-    <t>1qaz@WSXmst</t>
-  </si>
-  <si>
-    <t>1qaz@WSXmka</t>
-  </si>
-  <si>
-    <t>mstepanova@mail.ru</t>
-  </si>
-  <si>
-    <t>1qaz@WSXgto</t>
-  </si>
-  <si>
-    <t>gtokarev@mail.ru</t>
-  </si>
-  <si>
-    <t>mfedenko@mail.ru</t>
-  </si>
-  <si>
-    <t>1qaz@WSXmel</t>
-  </si>
-  <si>
-    <t>melchishcheva@mail.ru</t>
-  </si>
-  <si>
-    <t>mkarpekina@mail.ru</t>
   </si>
 </sst>
 </file>
@@ -170,7 +163,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -193,11 +186,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -206,6 +210,9 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -520,213 +527,195 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.83203125" customWidth="1"/>
-    <col min="2" max="3" width="14.5" customWidth="1"/>
-    <col min="4" max="4" width="9.5" customWidth="1"/>
+    <col min="1" max="1" width="14.85546875" customWidth="1"/>
+    <col min="2" max="3" width="14.42578125" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
-    <col min="6" max="6" width="13.5" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" customWidth="1"/>
     <col min="7" max="7" width="22" customWidth="1"/>
-    <col min="9" max="9" width="20.33203125" customWidth="1"/>
+    <col min="8" max="8" width="20.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="E1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="H1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>1</v>
+      <c r="I1" s="5" t="s">
+        <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2" s="4">
         <v>41376</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I2" s="3">
+        <v>27</v>
+      </c>
+      <c r="H2" s="3">
         <v>1000018265779</v>
       </c>
-      <c r="J2" s="2">
-        <v>8</v>
+      <c r="I2">
+        <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" s="4">
         <v>41376</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I3" s="3">
+        <v>29</v>
+      </c>
+      <c r="H3" s="3">
         <v>1000018266188</v>
       </c>
-      <c r="J3" s="2">
-        <v>8</v>
+      <c r="I3">
+        <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>14</v>
       </c>
       <c r="C4" s="4">
         <v>41376</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="G4" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I4" s="3">
+        <v>30</v>
+      </c>
+      <c r="H4" s="3">
         <v>1000018266313</v>
       </c>
-      <c r="J4" s="2">
-        <v>8</v>
+      <c r="I4">
+        <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5" s="4">
         <v>39418</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I5" s="3">
+        <v>32</v>
+      </c>
+      <c r="H5" s="3">
         <v>1000013834658</v>
       </c>
-      <c r="J5" s="2">
-        <v>26</v>
+      <c r="I5">
+        <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6" s="4">
         <v>38986</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="G6" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I6" s="3">
+        <v>33</v>
+      </c>
+      <c r="H6" s="3">
         <v>1000013834659</v>
       </c>
-      <c r="J6" s="2">
-        <v>26</v>
+      <c r="I6">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
